--- a/data-raw/metadata/delta_entry_trap_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDA6BE9-8277-8041-B8A1-D3F6657124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723C046F-07BB-B94B-97F0-CA6D98224BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55940" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -193,62 +193,37 @@
     <t>feetPerSecond</t>
   </si>
   <si>
-    <t>Describing if fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", "No catch data; fish released")</t>
-  </si>
-  <si>
-    <t>dissolvedOxygen</t>
-  </si>
-  <si>
-    <t>Level of dissolved oxygen measured</t>
-  </si>
-  <si>
-    <t>milligramPerLiter</t>
-  </si>
-  <si>
-    <t>conductivity</t>
-  </si>
-  <si>
-    <t>waterTempUnit</t>
-  </si>
-  <si>
-    <t>Foreign key to the CAMP ProjectDescription table.  For the Lower Feather River, Project Description ID = 12.</t>
-  </si>
-  <si>
-    <t>Lower Feather RST</t>
-  </si>
-  <si>
-    <t>Position of trap within the site. Levels =c("RL", "RR")</t>
-  </si>
-  <si>
-    <t>2022-01-19 12:30:11</t>
-  </si>
-  <si>
-    <t>2023-02-02 11:30:15</t>
-  </si>
-  <si>
     <t>Work that was done during visit to trap. Levels = c("Start trap &amp; begin trapping", "Continue trapping", "Unplanned restart", "End trapping")</t>
-  </si>
-  <si>
-    <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("N/A; not a sampling visit", "Processed fish", "No fish were caught", 
-"No catch data; fish released")</t>
   </si>
   <si>
     <t>Code for whether this record is considered of high enough quality to include in analysis. Levels = c("Yes", "No")</t>
   </si>
   <si>
-    <t>microSiemenPerCentimeter</t>
-  </si>
-  <si>
     <t>see waterTempUnit</t>
   </si>
   <si>
-    <t>Electrical conductivity of water measured</t>
+    <t>Foreign key to the CAMP ProjectDescription table.  For the Delta Entry RST, Project Description ID = 10.</t>
   </si>
   <si>
-    <t>Unit of water temperature recorded</t>
+    <t>Delta Entry RST</t>
   </si>
   <si>
-    <t>Name of the sampling site. Level = "Lower Feather River RST"</t>
+    <t>Name of the sampling site. Level ="Lower Sacramento River RST"</t>
+  </si>
+  <si>
+    <t>Position of trap within the site. Levels =c("RR", "RL")</t>
+  </si>
+  <si>
+    <t>2022-01-21 12:45:07</t>
+  </si>
+  <si>
+    <t>2022-06-08 10:15:26</t>
+  </si>
+  <si>
+    <t>Describing if fish processed during trap visit. Levels = c("N/A; not a sampling visit", "Processed fish", "No fish were caught")</t>
+  </si>
+  <si>
+    <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("Trap functioning normally", "Trap functioning, but not normally", "Trap stopped functioning")</t>
   </si>
 </sst>
 </file>
@@ -580,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -662,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -738,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -776,7 +751,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -834,10 +809,10 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -858,7 +833,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -896,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -934,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -999,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>148036</v>
+        <v>5563</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1047,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1095,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1116,7 +1091,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1178,10 +1153,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3">
-        <v>1072</v>
+        <v>4901</v>
       </c>
       <c r="M14" s="3">
-        <v>28445</v>
+        <v>11345</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1226,10 +1201,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M15" s="3">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1265,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1274,10 +1249,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="M16" s="3">
-        <v>63.4</v>
+        <v>22.7</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1322,10 +1297,10 @@
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="3">
-        <v>59.6</v>
+        <v>26.2</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -1341,88 +1316,48 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="M18" s="13">
-        <v>830</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="3">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M19" s="3">
-        <v>2.52</v>
-      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1438,21 +1373,11 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1952,7 +1877,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1980,7 +1905,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -2008,7 +1933,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -2036,7 +1961,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2064,7 +1989,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2092,7 +2017,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2120,7 +2045,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -3016,7 +2941,7 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
+      <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -3044,7 +2969,7 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
+      <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -3072,7 +2997,7 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -28943,106 +28868,22 @@
       <c r="Y1001" s="1"/>
       <c r="Z1001" s="1"/>
     </row>
-    <row r="1002" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="3"/>
-      <c r="G1002" s="3"/>
-      <c r="H1002" s="3"/>
-      <c r="I1002" s="2"/>
-      <c r="J1002" s="3"/>
-      <c r="K1002" s="2"/>
-      <c r="L1002" s="3"/>
-      <c r="M1002" s="3"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
-      <c r="P1002" s="1"/>
-      <c r="Q1002" s="1"/>
-      <c r="R1002" s="1"/>
-      <c r="S1002" s="1"/>
-      <c r="T1002" s="1"/>
-      <c r="U1002" s="1"/>
-      <c r="V1002" s="1"/>
-      <c r="W1002" s="1"/>
-      <c r="X1002" s="1"/>
-      <c r="Y1002" s="1"/>
-      <c r="Z1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="3"/>
-      <c r="G1003" s="3"/>
-      <c r="H1003" s="3"/>
-      <c r="I1003" s="2"/>
-      <c r="J1003" s="3"/>
-      <c r="K1003" s="2"/>
-      <c r="L1003" s="3"/>
-      <c r="M1003" s="3"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
-      <c r="P1003" s="1"/>
-      <c r="Q1003" s="1"/>
-      <c r="R1003" s="1"/>
-      <c r="S1003" s="1"/>
-      <c r="T1003" s="1"/>
-      <c r="U1003" s="1"/>
-      <c r="V1003" s="1"/>
-      <c r="W1003" s="1"/>
-      <c r="X1003" s="1"/>
-      <c r="Y1003" s="1"/>
-      <c r="Z1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="3"/>
-      <c r="G1004" s="3"/>
-      <c r="H1004" s="3"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="3"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="3"/>
-      <c r="M1004" s="3"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-      <c r="Z1004" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E1004 E1:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C58:C1001 C1:C46" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F19:F1004 F1:F17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C49 C61:C1004 C1:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H19:H1004 H1:H17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1001" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29056,7 +28897,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29103,10 +28944,10 @@
     </row>
     <row r="2" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_trap_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723C046F-07BB-B94B-97F0-CA6D98224BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8780B0E3-F9FE-C240-8D3D-1B5403633342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55940" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -190,9 +190,6 @@
     <t>cubicFeetPerSecond</t>
   </si>
   <si>
-    <t>feetPerSecond</t>
-  </si>
-  <si>
     <t>Work that was done during visit to trap. Levels = c("Start trap &amp; begin trapping", "Continue trapping", "Unplanned restart", "End trapping")</t>
   </si>
   <si>
@@ -224,6 +221,33 @@
   </si>
   <si>
     <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("Trap functioning normally", "Trap functioning, but not normally", "Trap stopped functioning")</t>
+  </si>
+  <si>
+    <t>counterAtStart</t>
+  </si>
+  <si>
+    <t>Reading on the rotation counter at the beginning of trap visit</t>
+  </si>
+  <si>
+    <t>dissolvedOxygen</t>
+  </si>
+  <si>
+    <t>Level of dissolved oxygen measured</t>
+  </si>
+  <si>
+    <t>milligramPerLiter</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>Electrical conductivity of water measured</t>
+  </si>
+  <si>
+    <t>microSiemenPerCentimeter</t>
+  </si>
+  <si>
+    <t>metersPerSecond</t>
   </si>
 </sst>
 </file>
@@ -555,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -713,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -751,7 +775,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -809,10 +833,10 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -833,7 +857,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -871,7 +895,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -909,7 +933,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -944,10 +968,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -974,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>5563</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -992,10 +1016,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1010,7 +1034,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>35</v>
@@ -1022,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>3.8</v>
+        <v>5563</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1040,7 +1064,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -1070,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1088,28 +1112,38 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3.9</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1126,38 +1160,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3">
-        <v>4901</v>
-      </c>
-      <c r="M14" s="3">
-        <v>11345</v>
-      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1174,10 +1198,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1192,7 +1216,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1201,10 +1225,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>0.3</v>
+        <v>4901</v>
       </c>
       <c r="M15" s="3">
-        <v>1.9</v>
+        <v>11345</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1222,10 +1246,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1240,7 +1264,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1249,10 +1273,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
-        <v>7.6</v>
+        <v>0.3</v>
       </c>
       <c r="M16" s="3">
-        <v>22.7</v>
+        <v>1.9</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1268,12 +1292,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>47</v>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>48</v>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1287,8 +1311,8 @@
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>49</v>
+      <c r="G17" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -1297,95 +1321,155 @@
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="M17" s="3">
-        <v>26.2</v>
+        <v>22.7</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="L18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+    </row>
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1877,7 +1961,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1905,7 +1989,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -1933,7 +2017,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1961,7 +2045,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -1989,7 +2073,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2941,7 +3025,7 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+      <c r="A76" s="4"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -28868,22 +28952,50 @@
       <c r="Y1001" s="1"/>
       <c r="Z1001" s="1"/>
     </row>
+    <row r="1002" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="3"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="3"/>
+      <c r="M1002" s="3"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C58:C1001 C1:C46" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C59:C1002 C1:C18 C20:C47" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E18 E20:E1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F18 F20:F1002" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1001" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H18 H20:H1002" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28947,7 +29059,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_trap_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_trap_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8780B0E3-F9FE-C240-8D3D-1B5403633342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBD7D40-FF00-F840-810A-3A3FA7CE3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -221,30 +221,6 @@
   </si>
   <si>
     <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("Trap functioning normally", "Trap functioning, but not normally", "Trap stopped functioning")</t>
-  </si>
-  <si>
-    <t>counterAtStart</t>
-  </si>
-  <si>
-    <t>Reading on the rotation counter at the beginning of trap visit</t>
-  </si>
-  <si>
-    <t>dissolvedOxygen</t>
-  </si>
-  <si>
-    <t>Level of dissolved oxygen measured</t>
-  </si>
-  <si>
-    <t>milligramPerLiter</t>
-  </si>
-  <si>
-    <t>conductivity</t>
-  </si>
-  <si>
-    <t>Electrical conductivity of water measured</t>
-  </si>
-  <si>
-    <t>microSiemenPerCentimeter</t>
   </si>
   <si>
     <t>metersPerSecond</t>
@@ -579,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -734,28 +710,34 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="3"/>
+      <c r="J4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -772,13 +754,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -792,7 +774,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="18"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -810,34 +792,28 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>24</v>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>62</v>
-      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -968,10 +944,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -998,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>5563</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1016,10 +992,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1034,7 +1010,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>35</v>
@@ -1046,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>5563</v>
+        <v>3.8</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1064,7 +1040,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -1094,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1112,38 +1088,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>3.9</v>
-      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1160,28 +1126,38 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3">
+        <v>4901</v>
+      </c>
+      <c r="M14" s="3">
+        <v>11345</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1198,10 +1174,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1216,7 +1192,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1225,10 +1201,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>4901</v>
+        <v>0.3</v>
       </c>
       <c r="M15" s="3">
-        <v>11345</v>
+        <v>1.9</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1246,10 +1222,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1264,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1273,10 +1249,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
-        <v>0.3</v>
+        <v>7.6</v>
       </c>
       <c r="M16" s="3">
-        <v>1.9</v>
+        <v>22.7</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1292,12 +1268,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>45</v>
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
+      <c r="B17" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1311,8 +1287,8 @@
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>56</v>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -1321,155 +1297,95 @@
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="3">
-        <v>22.7</v>
+        <v>26.2</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M18" s="3">
-        <v>26.2</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-    </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13">
-        <v>0</v>
-      </c>
-      <c r="M19" s="13">
-        <v>0</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1905,7 +1821,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -1933,7 +1849,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -1961,7 +1877,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1989,7 +1905,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -2017,7 +1933,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -2045,7 +1961,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2073,7 +1989,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2969,7 +2885,7 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
+      <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -2997,7 +2913,7 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -3025,7 +2941,7 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
+      <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -28896,106 +28812,22 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="3"/>
-      <c r="G1002" s="3"/>
-      <c r="H1002" s="3"/>
-      <c r="I1002" s="2"/>
-      <c r="J1002" s="3"/>
-      <c r="K1002" s="2"/>
-      <c r="L1002" s="3"/>
-      <c r="M1002" s="3"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
-      <c r="P1002" s="1"/>
-      <c r="Q1002" s="1"/>
-      <c r="R1002" s="1"/>
-      <c r="S1002" s="1"/>
-      <c r="T1002" s="1"/>
-      <c r="U1002" s="1"/>
-      <c r="V1002" s="1"/>
-      <c r="W1002" s="1"/>
-      <c r="X1002" s="1"/>
-      <c r="Y1002" s="1"/>
-      <c r="Z1002" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C59:C1002 C1:C18 C20:C47" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C56:C999 C1:C44" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E18 E20:E1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E999" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F18 F20:F1002" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F999" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H18 H20:H1002" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H999" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/delta_entry_trap_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_trap_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBD7D40-FF00-F840-810A-3A3FA7CE3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9D2E2-E0C5-AD4D-ADC2-22C90000F71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>discharge</t>
   </si>
   <si>
-    <t>Dischage measured at trap</t>
-  </si>
-  <si>
     <t>waterVel</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>see waterTempUnit</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table.  For the Delta Entry RST, Project Description ID = 10.</t>
-  </si>
-  <si>
     <t>Delta Entry RST</t>
   </si>
   <si>
@@ -224,6 +218,12 @@
   </si>
   <si>
     <t>metersPerSecond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign key to the CAMP ProjectDescription table.  All data associated with this package will have a ProjectDescriptionID = 10. </t>
+  </si>
+  <si>
+    <t>Discharge measured at trap</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,6 +340,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +562,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -733,10 +737,10 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -757,7 +761,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -795,7 +799,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -833,7 +837,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -866,50 +870,50 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:26" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
+      <c r="B8" s="21" t="s">
+        <v>61</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -1091,7 +1095,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1129,7 +1133,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1144,7 +1148,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
@@ -1174,10 +1178,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1192,7 +1196,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1222,10 +1226,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1240,7 +1244,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1270,10 +1274,10 @@
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1288,7 +1292,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -28854,13 +28858,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -28891,7 +28895,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_trap_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_trap_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9D2E2-E0C5-AD4D-ADC2-22C90000F71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B6285-2D03-E74F-B612-02FCE0645D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -208,9 +208,6 @@
     <t>2022-01-21 12:45:07</t>
   </si>
   <si>
-    <t>2022-06-08 10:15:26</t>
-  </si>
-  <si>
     <t>Describing if fish processed during trap visit. Levels = c("N/A; not a sampling visit", "Processed fish", "No fish were caught")</t>
   </si>
   <si>
@@ -225,12 +222,39 @@
   <si>
     <t>Discharge measured at trap</t>
   </si>
+  <si>
+    <t>counterAtStart</t>
+  </si>
+  <si>
+    <t>Reading on the rotation counter at the beginning of the trap visit</t>
+  </si>
+  <si>
+    <t>dissolvedOxygen</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>Conductivity measured at trap</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen measured at trap</t>
+  </si>
+  <si>
+    <t>2023-02-02 10:30:15</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>microSiemensPerCentimeter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -252,6 +276,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -338,12 +369,9 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -740,7 +768,7 @@
         <v>59</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -870,50 +898,50 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>61</v>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -996,10 +1024,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1014,7 +1042,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>35</v>
@@ -1026,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>3.8</v>
+        <v>3811</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1044,7 +1072,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -1074,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1092,28 +1120,38 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3.9</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1130,38 +1168,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3">
-        <v>4901</v>
-      </c>
-      <c r="M14" s="3">
-        <v>11345</v>
-      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1178,10 +1206,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1196,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1205,10 +1233,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>0.3</v>
+        <v>4901</v>
       </c>
       <c r="M15" s="3">
-        <v>1.9</v>
+        <v>11345</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1226,10 +1254,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1244,7 +1272,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1253,10 +1281,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
-        <v>7.6</v>
+        <v>0.3</v>
       </c>
       <c r="M16" s="3">
-        <v>22.7</v>
+        <v>1.9</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1272,12 +1300,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>46</v>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>47</v>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1291,8 +1319,8 @@
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>48</v>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -1301,67 +1329,107 @@
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="M17" s="3">
-        <v>26.2</v>
+        <v>1706</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="L18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="3">
+        <v>110.6</v>
+      </c>
+      <c r="M19" s="3">
+        <v>172.7</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1377,19 +1445,39 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3">
+        <v>93.1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>101.1</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1406,7 +1494,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
@@ -1434,7 +1522,7 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
@@ -1462,7 +1550,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
@@ -1825,7 +1913,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -1881,7 +1969,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1937,7 +2025,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -2889,7 +2977,7 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -28816,22 +28904,50 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="2"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="3"/>
+      <c r="G1000" s="3"/>
+      <c r="H1000" s="3"/>
+      <c r="I1000" s="2"/>
+      <c r="J1000" s="3"/>
+      <c r="K1000" s="2"/>
+      <c r="L1000" s="3"/>
+      <c r="M1000" s="3"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C56:C999 C1:C44" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C57:C1000 C1:C45" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E999" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F999" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H999" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1000" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
